--- a/個人課表/T1234553.xlsx
+++ b/個人課表/T1234553.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C64E38-3327-4FF5-8A06-1BEC77B53A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F60490B-45AA-4509-B631-862235CFBB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9160" yWindow="470" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,15 +81,6 @@
   <si>
     <t>16:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移動應用開發</t>
-  </si>
-  <si>
-    <t>虛擬實境</t>
-  </si>
-  <si>
-    <t>國際貿易</t>
   </si>
 </sst>
 </file>
@@ -140,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,11 +139,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -160,6 +166,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -443,7 +452,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -451,7 +460,7 @@
     <col min="1" max="1" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,21 +477,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
+      <c r="B2" s="5">
+        <v>1849</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
+      <c r="B3" s="5">
+        <v>1849</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
@@ -502,33 +511,33 @@
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
+      <c r="B7" s="5">
+        <v>1958</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7631</v>
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
+      <c r="B8" s="5">
+        <v>1958</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
+      <c r="D8" s="5">
+        <v>7631</v>
       </c>
       <c r="E8" s="4"/>
     </row>

--- a/個人課表/T1234553.xlsx
+++ b/個人課表/T1234553.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F60490B-45AA-4509-B631-862235CFBB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048E9815-1028-4C75-B684-0DF8413B187B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="110" yWindow="280" windowWidth="6580" windowHeight="9610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -497,19 +497,24 @@
       <c r="D3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5">
+        <v>7312</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4"/>
+      <c r="C5" s="5">
+        <v>7312</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
